--- a/Problems_1_Alina.xlsx
+++ b/Problems_1_Alina.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="206">
   <si>
     <t>}</t>
   </si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>R2.HOTEL</t>
-  </si>
-  <si>
-    <t>WHERE SEASON = 'W'</t>
   </si>
   <si>
     <t>ANIMATOR.ANIMATE = SEASON.ANIMATE</t>
@@ -1089,9 +1086,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,6 +1093,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1320,13 +1317,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1394,13 +1391,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1497,13 +1494,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1571,13 +1568,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1645,13 +1642,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1719,13 +1716,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1793,13 +1790,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1867,13 +1864,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1941,13 +1938,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2015,13 +2012,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2065,13 +2062,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2115,13 +2112,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2165,13 +2162,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2215,13 +2212,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2265,13 +2262,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3517,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE259"/>
+  <dimension ref="A2:AE258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O238" sqref="O238"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O214" sqref="O214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3841,13 +3838,13 @@
     </row>
     <row r="19" spans="1:21" ht="20.399999999999999">
       <c r="C19" s="5"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" spans="1:21" ht="20.399999999999999">
       <c r="C20" s="5"/>
@@ -4058,22 +4055,22 @@
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="59" t="s">
+      <c r="N34" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="O34" s="60"/>
-      <c r="Q34" s="59" t="s">
+      <c r="O34" s="59"/>
+      <c r="Q34" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="R34" s="60"/>
-      <c r="T34" s="59" t="s">
+      <c r="R34" s="59"/>
+      <c r="T34" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="U34" s="60"/>
-      <c r="W34" s="59" t="s">
+      <c r="U34" s="59"/>
+      <c r="W34" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="X34" s="60"/>
+      <c r="X34" s="59"/>
     </row>
     <row r="35" spans="1:24">
       <c r="H35" s="6" t="s">
@@ -4268,15 +4265,15 @@
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
-      <c r="P44" s="59" t="s">
+      <c r="P44" s="58" t="s">
         <v>174</v>
       </c>
       <c r="Q44" s="62"/>
-      <c r="R44" s="60"/>
-      <c r="T44" s="59" t="s">
+      <c r="R44" s="59"/>
+      <c r="T44" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="U44" s="60"/>
+      <c r="U44" s="59"/>
     </row>
     <row r="45" spans="1:24">
       <c r="H45" s="6" t="s">
@@ -4684,18 +4681,18 @@
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c r="L73" s="57" t="s">
+      <c r="L73" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="U73" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="58"/>
-      <c r="U73" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="V73" s="58"/>
-      <c r="W73" s="58"/>
-      <c r="X73" s="58"/>
+      <c r="V73" s="57"/>
+      <c r="W73" s="57"/>
+      <c r="X73" s="57"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90">
@@ -4996,10 +4993,10 @@
         <v>40</v>
       </c>
       <c r="P115" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="R115" t="s">
         <v>200</v>
-      </c>
-      <c r="R115" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -6863,7 +6860,7 @@
     </row>
     <row r="205" spans="1:31" ht="15">
       <c r="H205" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K205" s="49"/>
       <c r="L205" s="50">
@@ -6897,7 +6894,7 @@
     </row>
     <row r="206" spans="1:31" ht="15">
       <c r="H206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K206" s="52">
         <v>0</v>
@@ -6997,13 +6994,13 @@
       <c r="G212" s="31"/>
       <c r="H212" s="31"/>
       <c r="K212" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L212" s="33" t="s">
         <v>69</v>
       </c>
       <c r="M212" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -7014,13 +7011,46 @@
       <c r="F213" s="31"/>
       <c r="G213" s="31"/>
       <c r="H213" s="31"/>
-      <c r="K213" s="40" t="s">
+      <c r="K213" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L213" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M213" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="K214" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="L214" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M214" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="K215" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L215" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M215" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="K216" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="L213" s="33" t="s">
+      <c r="L216" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="M213" s="40">
+      <c r="M216" s="40">
         <v>2</v>
       </c>
     </row>
@@ -7052,32 +7082,32 @@
       <c r="H220" s="31"/>
     </row>
     <row r="221" spans="1:13">
-      <c r="B221" s="44" t="s">
+      <c r="B221" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C221" s="44"/>
-      <c r="D221" s="44"/>
-      <c r="E221" s="44"/>
-      <c r="F221" s="44"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="31"/>
     </row>
     <row r="222" spans="1:13">
-      <c r="B222" s="43" t="s">
-        <v>199</v>
+      <c r="A222">
+        <v>15</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223">
-        <v>15</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="B223" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C223" s="44"/>
+      <c r="D223" s="44"/>
+      <c r="E223" s="44"/>
+      <c r="F223" s="44"/>
+      <c r="G223" s="44"/>
+      <c r="H223" s="44"/>
     </row>
     <row r="224" spans="1:13">
       <c r="B224" s="44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C224" s="44"/>
       <c r="D224" s="44"/>
@@ -7088,7 +7118,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="B225" s="44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C225" s="44"/>
       <c r="D225" s="44"/>
@@ -7099,7 +7129,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="B226" s="44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C226" s="44"/>
       <c r="D226" s="44"/>
@@ -7109,27 +7139,29 @@
       <c r="H226" s="44"/>
     </row>
     <row r="227" spans="1:10">
-      <c r="B227" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="C227" s="44"/>
-      <c r="D227" s="44"/>
-      <c r="E227" s="44"/>
-      <c r="F227" s="44"/>
-      <c r="G227" s="44"/>
-      <c r="H227" s="44"/>
+      <c r="A227">
+        <v>16</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="228" spans="1:10">
-      <c r="A228">
-        <v>16</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B228" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C228" s="44"/>
+      <c r="D228" s="44"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="44"/>
+      <c r="G228" s="44"/>
+      <c r="H228" s="44"/>
+      <c r="I228" s="29"/>
+      <c r="J228" s="29"/>
     </row>
     <row r="229" spans="1:10">
       <c r="B229" s="44" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C229" s="44"/>
       <c r="D229" s="44"/>
@@ -7137,39 +7169,35 @@
       <c r="F229" s="44"/>
       <c r="G229" s="44"/>
       <c r="H229" s="44"/>
-      <c r="I229" s="29"/>
-      <c r="J229" s="29"/>
-    </row>
-    <row r="230" spans="1:10">
-      <c r="B230" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="C230" s="44"/>
-      <c r="D230" s="44"/>
-      <c r="E230" s="44"/>
-      <c r="F230" s="44"/>
-      <c r="G230" s="44"/>
-      <c r="H230" s="44"/>
-    </row>
-    <row r="233" spans="1:10">
-      <c r="A233">
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232">
         <v>17</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>18</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="240" spans="1:10">
-      <c r="A240">
-        <v>18</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="B240" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C240" s="44"/>
+      <c r="D240" s="44"/>
+      <c r="E240" s="44"/>
+      <c r="F240" s="29"/>
     </row>
     <row r="241" spans="1:23">
       <c r="B241" s="44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C241" s="44"/>
       <c r="D241" s="44"/>
@@ -7177,133 +7205,168 @@
       <c r="F241" s="29"/>
     </row>
     <row r="242" spans="1:23">
-      <c r="B242" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="C242" s="44"/>
-      <c r="D242" s="44"/>
-      <c r="E242" s="44"/>
-      <c r="F242" s="29"/>
-    </row>
-    <row r="243" spans="1:23">
-      <c r="B243" s="45" t="s">
+      <c r="B242" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C243" s="45"/>
-      <c r="D243" s="45"/>
-      <c r="E243" s="45"/>
-      <c r="F243" s="30"/>
-    </row>
-    <row r="245" spans="1:23">
-      <c r="A245">
+      <c r="C242" s="45"/>
+      <c r="D242" s="45"/>
+      <c r="E242" s="45"/>
+      <c r="F242" s="30"/>
+    </row>
+    <row r="244" spans="1:23">
+      <c r="A244">
         <v>19</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="246" spans="1:23">
+      <c r="Q246" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="247" spans="1:23">
-      <c r="Q247" s="46" t="s">
-        <v>206</v>
+      <c r="I247" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K247" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L247" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M247" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N247" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O247" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:23">
-      <c r="I248" s="10" t="s">
+      <c r="I248" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K248" s="6">
+        <v>2</v>
+      </c>
+      <c r="L248" s="6">
+        <v>20000</v>
+      </c>
+      <c r="M248" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N248" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O248" s="16">
+        <v>45627</v>
+      </c>
+      <c r="Q248" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J248" s="10" t="s">
+      <c r="R248" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S248" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T248" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="K248" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L248" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M248" s="12" t="s">
+      <c r="U248" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N248" s="12" t="s">
+      <c r="V248" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O248" s="10" t="s">
+      <c r="W248" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:23">
       <c r="I249" s="6" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="J249" s="6" t="s">
         <v>69</v>
       </c>
       <c r="K249" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L249" s="6">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M249" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N249" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O249" s="16">
         <v>45627</v>
       </c>
-      <c r="Q249" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R249" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S249" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T249" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="U249" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V249" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="W249" s="10" t="s">
-        <v>79</v>
+      <c r="Q249" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R249" s="6">
+        <v>15000</v>
+      </c>
+      <c r="S249" s="6">
+        <v>1</v>
+      </c>
+      <c r="U249" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V249" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="W249" s="16">
+        <v>45627</v>
       </c>
     </row>
     <row r="250" spans="1:23">
       <c r="I250" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J250" s="6" t="s">
         <v>69</v>
       </c>
       <c r="K250" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L250" s="6">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M250" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N250" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O250" s="16">
         <v>45627</v>
       </c>
       <c r="Q250" s="6" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="R250" s="6">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="S250" s="6">
         <v>1</v>
+      </c>
+      <c r="T250" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="U250" s="6" t="s">
         <v>157</v>
@@ -7317,37 +7380,37 @@
     </row>
     <row r="251" spans="1:23">
       <c r="I251" s="6" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="J251" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K251" s="6">
+        <v>1</v>
+      </c>
+      <c r="L251" s="6">
+        <v>30000</v>
+      </c>
+      <c r="M251" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N251" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O251" s="16">
+        <v>45047</v>
+      </c>
+      <c r="Q251" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R251" s="6">
+        <v>60000</v>
+      </c>
+      <c r="S251" s="6">
+        <v>1</v>
+      </c>
+      <c r="T251" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="K251" s="6">
-        <v>2</v>
-      </c>
-      <c r="L251" s="6">
-        <v>16000</v>
-      </c>
-      <c r="M251" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N251" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O251" s="16">
-        <v>45627</v>
-      </c>
-      <c r="Q251" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R251" s="6">
-        <v>30000</v>
-      </c>
-      <c r="S251" s="6">
-        <v>1</v>
-      </c>
-      <c r="T251" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="U251" s="6" t="s">
         <v>157</v>
@@ -7361,7 +7424,7 @@
     </row>
     <row r="252" spans="1:23">
       <c r="I252" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="J252" s="6" t="s">
         <v>70</v>
@@ -7370,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="6">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M252" s="6" t="s">
         <v>157</v>
@@ -7382,10 +7445,10 @@
         <v>45047</v>
       </c>
       <c r="Q252" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R252" s="6">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="S252" s="6">
         <v>1</v>
@@ -7404,38 +7467,35 @@
       </c>
     </row>
     <row r="253" spans="1:23">
-      <c r="I253" s="6" t="s">
-        <v>63</v>
+      <c r="I253" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="J253" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K253" s="6">
-        <v>1</v>
+      <c r="K253" s="15">
+        <v>2</v>
       </c>
       <c r="L253" s="6">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M253" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N253" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O253" s="16">
         <v>45047</v>
       </c>
       <c r="Q253" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R253" s="6">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="S253" s="6">
         <v>1</v>
-      </c>
-      <c r="T253" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="U253" s="6" t="s">
         <v>157</v>
@@ -7448,41 +7508,20 @@
       </c>
     </row>
     <row r="254" spans="1:23">
-      <c r="I254" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J254" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K254" s="15">
+      <c r="Q254" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="R254" s="6">
+        <v>25000</v>
+      </c>
+      <c r="S254" s="6">
         <v>2</v>
       </c>
-      <c r="L254" s="6">
-        <v>40000</v>
-      </c>
-      <c r="M254" s="6" t="s">
+      <c r="U254" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="N254" s="6" t="s">
+      <c r="V254" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="O254" s="16">
-        <v>45047</v>
-      </c>
-      <c r="Q254" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R254" s="6">
-        <v>23000</v>
-      </c>
-      <c r="S254" s="6">
-        <v>1</v>
-      </c>
-      <c r="U254" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="V254" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="W254" s="16">
         <v>45627</v>
@@ -7490,10 +7529,10 @@
     </row>
     <row r="255" spans="1:23">
       <c r="Q255" s="6" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="R255" s="6">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="S255" s="6">
         <v>2</v>
@@ -7510,14 +7549,17 @@
     </row>
     <row r="256" spans="1:23">
       <c r="Q256" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R256" s="6">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="S256" s="6">
         <v>2</v>
       </c>
+      <c r="T256" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="U256" s="6" t="s">
         <v>158</v>
       </c>
@@ -7530,10 +7572,10 @@
     </row>
     <row r="257" spans="17:23">
       <c r="Q257" s="6" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="R257" s="6">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="S257" s="6">
         <v>2</v>
@@ -7553,16 +7595,16 @@
     </row>
     <row r="258" spans="17:23">
       <c r="Q258" s="6" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="R258" s="6">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="S258" s="6">
         <v>2</v>
       </c>
       <c r="T258" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U258" s="6" t="s">
         <v>158</v>
@@ -7571,29 +7613,6 @@
         <v>159</v>
       </c>
       <c r="W258" s="16">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="259" spans="17:23">
-      <c r="Q259" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R259" s="6">
-        <v>40000</v>
-      </c>
-      <c r="S259" s="6">
-        <v>2</v>
-      </c>
-      <c r="T259" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U259" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="V259" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="W259" s="16">
         <v>45627</v>
       </c>
     </row>
